--- a/Aplicacion_Sistema_Experto/Sitio_WEB/static/Catalogos/Variedades.xlsx
+++ b/Aplicacion_Sistema_Experto/Sitio_WEB/static/Catalogos/Variedades.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\GitHub\Sistema_Experto\Aplicacion_Sistema_Experto\Sitio_WEB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\GitHub\Sistema_Experto\Aplicacion_Sistema_Experto\Sitio_WEB\static\Catalogos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1D263D-C760-455B-832C-B8BECD2FC5F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11E648C-5FAF-4BAB-8A65-E3BAE3A4BACA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F2F24514-A324-4A91-BC41-6F647A0328B5}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$K$151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$L$151</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="371">
   <si>
     <t>POJ2878</t>
   </si>
@@ -1045,6 +1045,108 @@
   </si>
   <si>
     <t>92.2</t>
+  </si>
+  <si>
+    <t>ProduccionCana</t>
+  </si>
+  <si>
+    <t>145.7</t>
+  </si>
+  <si>
+    <t>100.2</t>
+  </si>
+  <si>
+    <t>172.3</t>
+  </si>
+  <si>
+    <t>168.9</t>
+  </si>
+  <si>
+    <t>193.5</t>
+  </si>
+  <si>
+    <t>164.9</t>
+  </si>
+  <si>
+    <t>145.6</t>
+  </si>
+  <si>
+    <t>138.7</t>
+  </si>
+  <si>
+    <t>179.7</t>
+  </si>
+  <si>
+    <t>147.2</t>
+  </si>
+  <si>
+    <t>229.8</t>
+  </si>
+  <si>
+    <t>171.7</t>
+  </si>
+  <si>
+    <t>180.7</t>
+  </si>
+  <si>
+    <t>132.5</t>
+  </si>
+  <si>
+    <t>135.8</t>
+  </si>
+  <si>
+    <t>166.7</t>
+  </si>
+  <si>
+    <t>146.4</t>
+  </si>
+  <si>
+    <t>125.6</t>
+  </si>
+  <si>
+    <t>216.8</t>
+  </si>
+  <si>
+    <t>89.26</t>
+  </si>
+  <si>
+    <t>83.11</t>
+  </si>
+  <si>
+    <t>188.25</t>
+  </si>
+  <si>
+    <t>179.72</t>
+  </si>
+  <si>
+    <t>174.23</t>
+  </si>
+  <si>
+    <t>166.3</t>
+  </si>
+  <si>
+    <t>207.75</t>
+  </si>
+  <si>
+    <t>208.80</t>
+  </si>
+  <si>
+    <t>270-59</t>
+  </si>
+  <si>
+    <t>163.42</t>
+  </si>
+  <si>
+    <t>195.2</t>
+  </si>
+  <si>
+    <t>164.1</t>
+  </si>
+  <si>
+    <t>173.4</t>
+  </si>
+  <si>
+    <t>181.52</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1096,6 +1198,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1411,10 +1516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914BE781-1200-405E-ABFA-48304F8C6182}">
-  <dimension ref="A1:K151"/>
+  <dimension ref="A1:L151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="L141" sqref="L141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1427,9 +1532,10 @@
     <col min="6" max="8" width="13" customWidth="1"/>
     <col min="9" max="10" width="14.140625" customWidth="1"/>
     <col min="11" max="11" width="11.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>94</v>
       </c>
@@ -1463,8 +1569,11 @@
       <c r="K1" s="3" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>324</v>
       </c>
@@ -1498,8 +1607,11 @@
       <c r="K2" s="1" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1533,8 +1645,11 @@
       <c r="K3" s="1" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1568,8 +1683,11 @@
       <c r="K4" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1603,8 +1721,11 @@
       <c r="K5" s="1" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1638,8 +1759,11 @@
       <c r="K6" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1673,8 +1797,11 @@
       <c r="K7" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -1708,8 +1835,11 @@
       <c r="K8" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1743,8 +1873,11 @@
       <c r="K9" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1778,8 +1911,11 @@
       <c r="K10" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1813,8 +1949,11 @@
       <c r="K11" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>236</v>
       </c>
@@ -1848,8 +1987,11 @@
       <c r="K12" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1883,8 +2025,11 @@
       <c r="K13" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1918,8 +2063,11 @@
       <c r="K14" s="2" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1953,8 +2101,11 @@
       <c r="K15" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1988,8 +2139,11 @@
       <c r="K16" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -2023,8 +2177,11 @@
       <c r="K17" s="2" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2058,8 +2215,11 @@
       <c r="K18" s="2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -2093,8 +2253,11 @@
       <c r="K19" s="2" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2128,8 +2291,11 @@
       <c r="K20" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>237</v>
       </c>
@@ -2163,8 +2329,11 @@
       <c r="K21" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -2198,8 +2367,11 @@
       <c r="K22" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>233</v>
       </c>
@@ -2233,8 +2405,11 @@
       <c r="K23" s="2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -2268,8 +2443,11 @@
       <c r="K24" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -2303,8 +2481,11 @@
       <c r="K25" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -2338,8 +2519,11 @@
       <c r="K26" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -2373,8 +2557,11 @@
       <c r="K27" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -2408,8 +2595,11 @@
       <c r="K28" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>236</v>
       </c>
@@ -2443,8 +2633,11 @@
       <c r="K29" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -2478,8 +2671,11 @@
       <c r="K30" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -2513,8 +2709,11 @@
       <c r="K31" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -2548,8 +2747,11 @@
       <c r="K32" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -2583,8 +2785,11 @@
       <c r="K33" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -2618,8 +2823,11 @@
       <c r="K34" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -2653,8 +2861,11 @@
       <c r="K35" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -2688,8 +2899,11 @@
       <c r="K36" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -2723,8 +2937,11 @@
       <c r="K37" s="2" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>237</v>
       </c>
@@ -2758,8 +2975,11 @@
       <c r="K38" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -2793,8 +3013,11 @@
       <c r="K39" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L39" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>233</v>
       </c>
@@ -2828,8 +3051,11 @@
       <c r="K40" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L40" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>33</v>
       </c>
@@ -2863,8 +3089,11 @@
       <c r="K41" s="2" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L41" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -2898,8 +3127,11 @@
       <c r="K42" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L42" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -2933,8 +3165,11 @@
       <c r="K43" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L43" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -2968,8 +3203,11 @@
       <c r="K44" s="2" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L44" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>236</v>
       </c>
@@ -3003,8 +3241,11 @@
       <c r="K45" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L45" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -3038,8 +3279,11 @@
       <c r="K46" s="2" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -3073,8 +3317,11 @@
       <c r="K47" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L47" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>16</v>
       </c>
@@ -3108,8 +3355,11 @@
       <c r="K48" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L48" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>16</v>
       </c>
@@ -3143,8 +3393,11 @@
       <c r="K49" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L49" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>20</v>
       </c>
@@ -3178,8 +3431,11 @@
       <c r="K50" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L50" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>20</v>
       </c>
@@ -3213,8 +3469,11 @@
       <c r="K51" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L51" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>24</v>
       </c>
@@ -3248,8 +3507,11 @@
       <c r="K52" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L52" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>18</v>
       </c>
@@ -3283,8 +3545,11 @@
       <c r="K53" s="2" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L53" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>237</v>
       </c>
@@ -3318,8 +3583,11 @@
       <c r="K54" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L54" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -3353,8 +3621,11 @@
       <c r="K55" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L55" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>233</v>
       </c>
@@ -3388,8 +3659,11 @@
       <c r="K56" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L56" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>21</v>
       </c>
@@ -3423,8 +3697,11 @@
       <c r="K57" s="2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L57" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -3458,8 +3735,11 @@
       <c r="K58" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L58" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -3493,8 +3773,11 @@
       <c r="K59" s="2" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L59" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -3528,8 +3811,11 @@
       <c r="K60" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L60" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -3563,8 +3849,11 @@
       <c r="K61" s="2" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L61" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>236</v>
       </c>
@@ -3598,8 +3887,11 @@
       <c r="K62" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L62" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -3633,8 +3925,11 @@
       <c r="K63" s="2" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L63" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>12</v>
       </c>
@@ -3668,8 +3963,11 @@
       <c r="K64" s="2" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L64" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>16</v>
       </c>
@@ -3703,8 +4001,11 @@
       <c r="K65" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L65" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -3738,8 +4039,11 @@
       <c r="K66" s="2" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L66" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>20</v>
       </c>
@@ -3773,8 +4077,11 @@
       <c r="K67" s="2" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L67" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>20</v>
       </c>
@@ -3808,8 +4115,11 @@
       <c r="K68" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L68" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>24</v>
       </c>
@@ -3843,8 +4153,11 @@
       <c r="K69" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L69" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>18</v>
       </c>
@@ -3878,8 +4191,11 @@
       <c r="K70" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L70" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>237</v>
       </c>
@@ -3913,8 +4229,11 @@
       <c r="K71" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L71" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -3948,8 +4267,11 @@
       <c r="K72" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L72" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>233</v>
       </c>
@@ -3983,8 +4305,11 @@
       <c r="K73" s="2" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L73" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>33</v>
       </c>
@@ -4018,8 +4343,11 @@
       <c r="K74" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L74" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>9</v>
       </c>
@@ -4053,8 +4381,11 @@
       <c r="K75" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L75" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>9</v>
       </c>
@@ -4088,8 +4419,11 @@
       <c r="K76" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L76" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -4123,8 +4457,11 @@
       <c r="K77" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L77" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>236</v>
       </c>
@@ -4158,8 +4495,11 @@
       <c r="K78" s="2" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L78" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>12</v>
       </c>
@@ -4193,8 +4533,11 @@
       <c r="K79" s="2" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L79" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>12</v>
       </c>
@@ -4228,8 +4571,11 @@
       <c r="K80" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L80" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>16</v>
       </c>
@@ -4263,8 +4609,11 @@
       <c r="K81" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L81" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>16</v>
       </c>
@@ -4298,8 +4647,11 @@
       <c r="K82" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L82" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>20</v>
       </c>
@@ -4333,8 +4685,11 @@
       <c r="K83" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L83" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>20</v>
       </c>
@@ -4368,8 +4723,11 @@
       <c r="K84" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L84" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>24</v>
       </c>
@@ -4403,8 +4761,11 @@
       <c r="K85" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L85" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>18</v>
       </c>
@@ -4438,8 +4799,11 @@
       <c r="K86" s="2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L86" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>237</v>
       </c>
@@ -4473,8 +4837,11 @@
       <c r="K87" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L87" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>13</v>
       </c>
@@ -4508,8 +4875,11 @@
       <c r="K88" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L88" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>233</v>
       </c>
@@ -4543,8 +4913,11 @@
       <c r="K89" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L89" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>21</v>
       </c>
@@ -4578,8 +4951,11 @@
       <c r="K90" s="2" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L90" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>33</v>
       </c>
@@ -4613,8 +4989,11 @@
       <c r="K91" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L91" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>9</v>
       </c>
@@ -4648,8 +5027,11 @@
       <c r="K92" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L92" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -4683,8 +5065,11 @@
       <c r="K93" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L93" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>9</v>
       </c>
@@ -4718,8 +5103,11 @@
       <c r="K94" s="1">
         <v>94</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L94" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>236</v>
       </c>
@@ -4753,8 +5141,11 @@
       <c r="K95" s="2" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L95" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>12</v>
       </c>
@@ -4788,8 +5179,11 @@
       <c r="K96" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L96" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>12</v>
       </c>
@@ -4823,8 +5217,11 @@
       <c r="K97" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L97" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>16</v>
       </c>
@@ -4858,8 +5255,11 @@
       <c r="K98" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L98" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>16</v>
       </c>
@@ -4893,8 +5293,11 @@
       <c r="K99" s="2" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L99" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>20</v>
       </c>
@@ -4928,8 +5331,11 @@
       <c r="K100" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L100" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>20</v>
       </c>
@@ -4963,8 +5369,11 @@
       <c r="K101" s="2" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L101" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>24</v>
       </c>
@@ -4998,8 +5407,11 @@
       <c r="K102" s="2" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L102" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>18</v>
       </c>
@@ -5033,8 +5445,11 @@
       <c r="K103" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L103" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>237</v>
       </c>
@@ -5068,8 +5483,11 @@
       <c r="K104" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L104" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>13</v>
       </c>
@@ -5103,8 +5521,11 @@
       <c r="K105" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L105" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>233</v>
       </c>
@@ -5138,8 +5559,11 @@
       <c r="K106" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L106" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>21</v>
       </c>
@@ -5173,8 +5597,11 @@
       <c r="K107" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L107" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>33</v>
       </c>
@@ -5208,8 +5635,11 @@
       <c r="K108" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L108" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>18</v>
       </c>
@@ -5243,8 +5673,11 @@
       <c r="K109" s="1" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L109" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>9</v>
       </c>
@@ -5278,8 +5711,11 @@
       <c r="K110" s="1" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L110" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>317</v>
       </c>
@@ -5313,8 +5749,11 @@
       <c r="K111" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L111" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>317</v>
       </c>
@@ -5348,8 +5787,11 @@
       <c r="K112" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L112" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>16</v>
       </c>
@@ -5383,8 +5825,11 @@
       <c r="K113" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L113" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>16</v>
       </c>
@@ -5418,8 +5863,11 @@
       <c r="K114" s="1" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L114" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>24</v>
       </c>
@@ -5453,8 +5901,11 @@
       <c r="K115" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L115" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>24</v>
       </c>
@@ -5488,8 +5939,11 @@
       <c r="K116" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L116" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>21</v>
       </c>
@@ -5523,8 +5977,11 @@
       <c r="K117" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L117" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>33</v>
       </c>
@@ -5558,8 +6015,11 @@
       <c r="K118" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L118" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>33</v>
       </c>
@@ -5593,8 +6053,11 @@
       <c r="K119" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L119" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>33</v>
       </c>
@@ -5628,8 +6091,11 @@
       <c r="K120" s="1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L120" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>33</v>
       </c>
@@ -5663,8 +6129,11 @@
       <c r="K121" s="2" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L121" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>33</v>
       </c>
@@ -5698,8 +6167,11 @@
       <c r="K122" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L122" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>33</v>
       </c>
@@ -5733,8 +6205,11 @@
       <c r="K123" s="1">
         <v>91</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L123" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>33</v>
       </c>
@@ -5768,8 +6243,11 @@
       <c r="K124" s="1" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L124" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>33</v>
       </c>
@@ -5803,8 +6281,11 @@
       <c r="K125" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L125" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>33</v>
       </c>
@@ -5838,8 +6319,11 @@
       <c r="K126" s="1" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L126" s="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>33</v>
       </c>
@@ -5873,8 +6357,11 @@
       <c r="K127" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L127" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>33</v>
       </c>
@@ -5908,8 +6395,11 @@
       <c r="K128" s="1" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L128" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>33</v>
       </c>
@@ -5943,8 +6433,11 @@
       <c r="K129" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L129" s="4">
+        <v>202907</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>33</v>
       </c>
@@ -5978,8 +6471,11 @@
       <c r="K130" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L130" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>33</v>
       </c>
@@ -6013,8 +6509,11 @@
       <c r="K131" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L131" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>33</v>
       </c>
@@ -6048,8 +6547,11 @@
       <c r="K132" s="1" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L132" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>33</v>
       </c>
@@ -6083,8 +6585,11 @@
       <c r="K133" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L133" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>33</v>
       </c>
@@ -6118,8 +6623,11 @@
       <c r="K134" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L134" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>33</v>
       </c>
@@ -6153,8 +6661,11 @@
       <c r="K135" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L135" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>33</v>
       </c>
@@ -6188,8 +6699,11 @@
       <c r="K136" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L136" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>33</v>
       </c>
@@ -6223,8 +6737,11 @@
       <c r="K137" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L137" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>33</v>
       </c>
@@ -6258,8 +6775,11 @@
       <c r="K138" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L138" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>33</v>
       </c>
@@ -6293,8 +6813,11 @@
       <c r="K139" s="1" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L139" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>33</v>
       </c>
@@ -6328,8 +6851,11 @@
       <c r="K140" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L140" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>33</v>
       </c>
@@ -6363,8 +6889,11 @@
       <c r="K141" s="1" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L141" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>33</v>
       </c>
@@ -6398,8 +6927,11 @@
       <c r="K142" s="1" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L142" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>272</v>
       </c>
@@ -6433,8 +6965,11 @@
       <c r="K143" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L143" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>273</v>
       </c>
@@ -6468,8 +7003,11 @@
       <c r="K144" s="1" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L144" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>283</v>
       </c>
@@ -6503,8 +7041,11 @@
       <c r="K145" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L145" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>283</v>
       </c>
@@ -6538,8 +7079,11 @@
       <c r="K146" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L146" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>282</v>
       </c>
@@ -6573,8 +7117,11 @@
       <c r="K147" s="1" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L147" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>282</v>
       </c>
@@ -6608,8 +7155,11 @@
       <c r="K148" s="1" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L148" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>286</v>
       </c>
@@ -6643,8 +7193,11 @@
       <c r="K149" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L149" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>290</v>
       </c>
@@ -6678,8 +7231,11 @@
       <c r="K150" s="1" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L150" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>300</v>
       </c>
@@ -6713,9 +7269,12 @@
       <c r="K151" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="L151" s="1" t="s">
+        <v>347</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K151" xr:uid="{5F1D0039-5C2D-4D9C-98AD-C051957C84CE}"/>
+  <autoFilter ref="A1:L151" xr:uid="{9588C932-7A64-45E0-8ACE-39B289AC232F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A110:J117">
     <sortCondition ref="A110:A117"/>
   </sortState>
@@ -6725,21 +7284,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101008779A2D33CA8334492C549E4686517BF" ma:contentTypeVersion="5" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="2a4260219ee5de385190f1abcccb100d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ee14d8cb-d637-4a78-b781-9c79618f591c" xmlns:ns4="980e4f00-5dd6-4ca1-90c5-af35b41372d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6dd5b29c8537c5ffeac9c4273f4fd428" ns3:_="" ns4:_="">
     <xsd:import namespace="ee14d8cb-d637-4a78-b781-9c79618f591c"/>
@@ -6910,24 +7454,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD5E41CA-7CC8-4374-B90B-F75EA63B41F5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D35F07D0-F923-484E-A1F2-59518B14DBD4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2C1E75B-2AC2-40AB-8D57-20A7D5419072}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6944,4 +7486,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D35F07D0-F923-484E-A1F2-59518B14DBD4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD5E41CA-7CC8-4374-B90B-F75EA63B41F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Aplicacion_Sistema_Experto/Sitio_WEB/static/Catalogos/Variedades.xlsx
+++ b/Aplicacion_Sistema_Experto/Sitio_WEB/static/Catalogos/Variedades.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\GitHub\Sistema_Experto\Aplicacion_Sistema_Experto\Sitio_WEB\static\Catalogos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11E648C-5FAF-4BAB-8A65-E3BAE3A4BACA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E6DB4F-0968-4048-BE00-71BAB6D57038}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F2F24514-A324-4A91-BC41-6F647A0328B5}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$L$151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$M$151</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="372">
   <si>
     <t>POJ2878</t>
   </si>
@@ -1147,6 +1147,9 @@
   </si>
   <si>
     <t>181.52</t>
+  </si>
+  <si>
+    <t>Periodo</t>
   </si>
 </sst>
 </file>
@@ -1516,10 +1519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914BE781-1200-405E-ABFA-48304F8C6182}">
-  <dimension ref="A1:L151"/>
+  <dimension ref="A1:M151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L141" sqref="L141"/>
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1532,10 +1535,10 @@
     <col min="6" max="8" width="13" customWidth="1"/>
     <col min="9" max="10" width="14.140625" customWidth="1"/>
     <col min="11" max="11" width="11.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>94</v>
       </c>
@@ -1572,8 +1575,11 @@
       <c r="L1" s="3" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>324</v>
       </c>
@@ -1610,8 +1616,11 @@
       <c r="L2" s="1" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1648,8 +1657,11 @@
       <c r="L3" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1686,8 +1698,11 @@
       <c r="L4" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1724,8 +1739,11 @@
       <c r="L5" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1762,8 +1780,11 @@
       <c r="L6" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1800,8 +1821,11 @@
       <c r="L7" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -1838,8 +1862,11 @@
       <c r="L8" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1876,8 +1903,11 @@
       <c r="L9" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1914,8 +1944,11 @@
       <c r="L10" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1952,8 +1985,11 @@
       <c r="L11" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>236</v>
       </c>
@@ -1990,8 +2026,11 @@
       <c r="L12" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2028,8 +2067,11 @@
       <c r="L13" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2066,8 +2108,11 @@
       <c r="L14" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -2104,8 +2149,11 @@
       <c r="L15" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2142,8 +2190,11 @@
       <c r="L16" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -2180,8 +2231,11 @@
       <c r="L17" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2218,8 +2272,11 @@
       <c r="L18" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -2256,8 +2313,11 @@
       <c r="L19" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2294,8 +2354,11 @@
       <c r="L20" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>237</v>
       </c>
@@ -2332,8 +2395,11 @@
       <c r="L21" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -2370,8 +2436,11 @@
       <c r="L22" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>233</v>
       </c>
@@ -2408,8 +2477,11 @@
       <c r="L23" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -2446,8 +2518,11 @@
       <c r="L24" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -2484,8 +2559,11 @@
       <c r="L25" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -2522,8 +2600,11 @@
       <c r="L26" s="1" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -2560,8 +2641,11 @@
       <c r="L27" s="1" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -2598,8 +2682,11 @@
       <c r="L28" s="1" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>236</v>
       </c>
@@ -2636,8 +2723,11 @@
       <c r="L29" s="1" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -2674,8 +2764,11 @@
       <c r="L30" s="1" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -2712,8 +2805,11 @@
       <c r="L31" s="1" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -2750,8 +2846,11 @@
       <c r="L32" s="1" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -2788,8 +2887,11 @@
       <c r="L33" s="1" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -2826,8 +2928,11 @@
       <c r="L34" s="1" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M34">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -2864,8 +2969,11 @@
       <c r="L35" s="1" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -2902,8 +3010,11 @@
       <c r="L36" s="1" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M36">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -2940,8 +3051,11 @@
       <c r="L37" s="1" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M37">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>237</v>
       </c>
@@ -2978,8 +3092,11 @@
       <c r="L38" s="1" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M38">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -3016,8 +3133,11 @@
       <c r="L39" s="1" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M39">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>233</v>
       </c>
@@ -3054,8 +3174,11 @@
       <c r="L40" s="1" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M40">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>33</v>
       </c>
@@ -3092,8 +3215,11 @@
       <c r="L41" s="1" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M41">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -3130,8 +3256,11 @@
       <c r="L42" s="1" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M42">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -3168,8 +3297,11 @@
       <c r="L43" s="1" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M43">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -3206,8 +3338,11 @@
       <c r="L44" s="1" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M44">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>236</v>
       </c>
@@ -3244,8 +3379,11 @@
       <c r="L45" s="1" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -3282,8 +3420,11 @@
       <c r="L46" s="1" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M46">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -3320,8 +3461,11 @@
       <c r="L47" s="1" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M47">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>16</v>
       </c>
@@ -3358,8 +3502,11 @@
       <c r="L48" s="1" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M48">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>16</v>
       </c>
@@ -3396,8 +3543,11 @@
       <c r="L49" s="1" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M49">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>20</v>
       </c>
@@ -3434,8 +3584,11 @@
       <c r="L50" s="1" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M50">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>20</v>
       </c>
@@ -3472,8 +3625,11 @@
       <c r="L51" s="1" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M51">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>24</v>
       </c>
@@ -3510,8 +3666,11 @@
       <c r="L52" s="1" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M52">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>18</v>
       </c>
@@ -3548,8 +3707,11 @@
       <c r="L53" s="1" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M53">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>237</v>
       </c>
@@ -3586,8 +3748,11 @@
       <c r="L54" s="1" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M54">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -3624,8 +3789,11 @@
       <c r="L55" s="1" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M55">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>233</v>
       </c>
@@ -3662,8 +3830,11 @@
       <c r="L56" s="1" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M56">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>21</v>
       </c>
@@ -3700,8 +3871,11 @@
       <c r="L57" s="1" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M57">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -3738,8 +3912,11 @@
       <c r="L58" s="1" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M58">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -3776,8 +3953,11 @@
       <c r="L59" s="2" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M59">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -3814,8 +3994,11 @@
       <c r="L60" s="2" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M60">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -3852,8 +4035,11 @@
       <c r="L61" s="2" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M61">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>236</v>
       </c>
@@ -3890,8 +4076,11 @@
       <c r="L62" s="2" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M62">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -3928,8 +4117,11 @@
       <c r="L63" s="2" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M63">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>12</v>
       </c>
@@ -3966,8 +4158,11 @@
       <c r="L64" s="2" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M64">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>16</v>
       </c>
@@ -4004,8 +4199,11 @@
       <c r="L65" s="2" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M65">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -4042,8 +4240,11 @@
       <c r="L66" s="2" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M66">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>20</v>
       </c>
@@ -4080,8 +4281,11 @@
       <c r="L67" s="2" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M67">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>20</v>
       </c>
@@ -4118,8 +4322,11 @@
       <c r="L68" s="2" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M68">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>24</v>
       </c>
@@ -4156,8 +4363,11 @@
       <c r="L69" s="2" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M69">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>18</v>
       </c>
@@ -4194,8 +4404,11 @@
       <c r="L70" s="2" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M70">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>237</v>
       </c>
@@ -4232,8 +4445,11 @@
       <c r="L71" s="2" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M71">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -4270,8 +4486,11 @@
       <c r="L72" s="2" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M72">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>233</v>
       </c>
@@ -4308,8 +4527,11 @@
       <c r="L73" s="2" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M73">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>33</v>
       </c>
@@ -4346,8 +4568,11 @@
       <c r="L74" s="2" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M74">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>9</v>
       </c>
@@ -4384,8 +4609,11 @@
       <c r="L75" s="2" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M75">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>9</v>
       </c>
@@ -4422,8 +4650,11 @@
       <c r="L76" s="2" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M76">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -4460,8 +4691,11 @@
       <c r="L77" s="2" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M77">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>236</v>
       </c>
@@ -4498,8 +4732,11 @@
       <c r="L78" s="2" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M78">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>12</v>
       </c>
@@ -4536,8 +4773,11 @@
       <c r="L79" s="2" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M79">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>12</v>
       </c>
@@ -4574,8 +4814,11 @@
       <c r="L80" s="2" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M80">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>16</v>
       </c>
@@ -4612,8 +4855,11 @@
       <c r="L81" s="2" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M81">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>16</v>
       </c>
@@ -4650,8 +4896,11 @@
       <c r="L82" s="2" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M82">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>20</v>
       </c>
@@ -4688,8 +4937,11 @@
       <c r="L83" s="2" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M83">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>20</v>
       </c>
@@ -4726,8 +4978,11 @@
       <c r="L84" s="2" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M84">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>24</v>
       </c>
@@ -4764,8 +5019,11 @@
       <c r="L85" s="2" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M85">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>18</v>
       </c>
@@ -4802,8 +5060,11 @@
       <c r="L86" s="2" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M86">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>237</v>
       </c>
@@ -4840,8 +5101,11 @@
       <c r="L87" s="2" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M87">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>13</v>
       </c>
@@ -4878,8 +5142,11 @@
       <c r="L88" s="2" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M88">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>233</v>
       </c>
@@ -4916,8 +5183,11 @@
       <c r="L89" s="2" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M89">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>21</v>
       </c>
@@ -4954,8 +5224,11 @@
       <c r="L90" s="2" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M90">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>33</v>
       </c>
@@ -4992,8 +5265,11 @@
       <c r="L91" s="2" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M91">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>9</v>
       </c>
@@ -5030,8 +5306,11 @@
       <c r="L92" s="2" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M92">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -5068,8 +5347,11 @@
       <c r="L93" s="2" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M93">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>9</v>
       </c>
@@ -5106,8 +5388,11 @@
       <c r="L94" s="2" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M94">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>236</v>
       </c>
@@ -5144,8 +5429,11 @@
       <c r="L95" s="2" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M95">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>12</v>
       </c>
@@ -5182,8 +5470,11 @@
       <c r="L96" s="2" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M96">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>12</v>
       </c>
@@ -5220,8 +5511,11 @@
       <c r="L97" s="2" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M97">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>16</v>
       </c>
@@ -5258,8 +5552,11 @@
       <c r="L98" s="2" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M98">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>16</v>
       </c>
@@ -5296,8 +5593,11 @@
       <c r="L99" s="2" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M99">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>20</v>
       </c>
@@ -5334,8 +5634,11 @@
       <c r="L100" s="2" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M100">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>20</v>
       </c>
@@ -5372,8 +5675,11 @@
       <c r="L101" s="2" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M101">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>24</v>
       </c>
@@ -5410,8 +5716,11 @@
       <c r="L102" s="2" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M102">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>18</v>
       </c>
@@ -5448,8 +5757,11 @@
       <c r="L103" s="2" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M103">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>237</v>
       </c>
@@ -5486,8 +5798,11 @@
       <c r="L104" s="2" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M104">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>13</v>
       </c>
@@ -5524,8 +5839,11 @@
       <c r="L105" s="2" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M105">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>233</v>
       </c>
@@ -5562,8 +5880,11 @@
       <c r="L106" s="2" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M106">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>21</v>
       </c>
@@ -5600,8 +5921,11 @@
       <c r="L107" s="2" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M107">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>33</v>
       </c>
@@ -5638,8 +5962,11 @@
       <c r="L108" s="2" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M108">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>18</v>
       </c>
@@ -5676,8 +6003,11 @@
       <c r="L109" s="1" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M109">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>9</v>
       </c>
@@ -5714,8 +6044,11 @@
       <c r="L110" s="1" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M110">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>317</v>
       </c>
@@ -5752,8 +6085,11 @@
       <c r="L111" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M111">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>317</v>
       </c>
@@ -5790,8 +6126,11 @@
       <c r="L112" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M112" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>16</v>
       </c>
@@ -5828,8 +6167,11 @@
       <c r="L113" s="1" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M113">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>16</v>
       </c>
@@ -5866,8 +6208,11 @@
       <c r="L114" s="1" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M114">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>24</v>
       </c>
@@ -5904,8 +6249,11 @@
       <c r="L115" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M115">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>24</v>
       </c>
@@ -5942,8 +6290,11 @@
       <c r="L116" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M116">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>21</v>
       </c>
@@ -5980,8 +6331,11 @@
       <c r="L117" s="1" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M117">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>33</v>
       </c>
@@ -6018,8 +6372,11 @@
       <c r="L118" s="1" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M118">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>33</v>
       </c>
@@ -6056,8 +6413,11 @@
       <c r="L119" s="2" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M119">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>33</v>
       </c>
@@ -6094,8 +6454,11 @@
       <c r="L120" s="1" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M120">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>33</v>
       </c>
@@ -6132,8 +6495,11 @@
       <c r="L121" s="1" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M121">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>33</v>
       </c>
@@ -6170,8 +6536,11 @@
       <c r="L122" s="2" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M122">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>33</v>
       </c>
@@ -6208,8 +6577,11 @@
       <c r="L123" s="1" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M123">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>33</v>
       </c>
@@ -6246,8 +6618,11 @@
       <c r="L124" s="2" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M124">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>33</v>
       </c>
@@ -6284,8 +6659,11 @@
       <c r="L125" s="1" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M125">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>33</v>
       </c>
@@ -6322,8 +6700,11 @@
       <c r="L126" s="1">
         <v>145</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M126">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>33</v>
       </c>
@@ -6360,8 +6741,11 @@
       <c r="L127" s="1" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M127">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>33</v>
       </c>
@@ -6398,8 +6782,11 @@
       <c r="L128" s="1" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M128">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>33</v>
       </c>
@@ -6436,8 +6823,11 @@
       <c r="L129" s="4">
         <v>202907</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M129">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>33</v>
       </c>
@@ -6474,8 +6864,11 @@
       <c r="L130" s="1" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M130">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>33</v>
       </c>
@@ -6512,8 +6905,11 @@
       <c r="L131" s="1" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M131">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>33</v>
       </c>
@@ -6550,8 +6946,11 @@
       <c r="L132" s="1" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M132">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>33</v>
       </c>
@@ -6588,8 +6987,11 @@
       <c r="L133" s="1" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M133">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>33</v>
       </c>
@@ -6626,8 +7028,11 @@
       <c r="L134" s="1" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M134">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>33</v>
       </c>
@@ -6664,8 +7069,11 @@
       <c r="L135" s="1">
         <v>180</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M135">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>33</v>
       </c>
@@ -6702,8 +7110,11 @@
       <c r="L136" s="1" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M136">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>33</v>
       </c>
@@ -6740,8 +7151,11 @@
       <c r="L137" s="1" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M137">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>33</v>
       </c>
@@ -6778,8 +7192,11 @@
       <c r="L138" s="1" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M138">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>33</v>
       </c>
@@ -6816,8 +7233,11 @@
       <c r="L139" s="1" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M139">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>33</v>
       </c>
@@ -6854,8 +7274,11 @@
       <c r="L140" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M140">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>33</v>
       </c>
@@ -6892,8 +7315,11 @@
       <c r="L141" s="1" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M141">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>33</v>
       </c>
@@ -6930,8 +7356,11 @@
       <c r="L142" s="1" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M142">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>272</v>
       </c>
@@ -6968,8 +7397,11 @@
       <c r="L143" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M143">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>273</v>
       </c>
@@ -7006,8 +7438,11 @@
       <c r="L144" s="1" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M144">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>283</v>
       </c>
@@ -7044,8 +7479,11 @@
       <c r="L145" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M145">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>283</v>
       </c>
@@ -7082,8 +7520,11 @@
       <c r="L146" s="1" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M146">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>282</v>
       </c>
@@ -7120,8 +7561,11 @@
       <c r="L147" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M147">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>282</v>
       </c>
@@ -7158,8 +7602,11 @@
       <c r="L148" s="1" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M148">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>286</v>
       </c>
@@ -7196,8 +7643,11 @@
       <c r="L149" s="1" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M149">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>290</v>
       </c>
@@ -7234,8 +7684,11 @@
       <c r="L150" s="1">
         <v>103</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M150">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>300</v>
       </c>
@@ -7272,9 +7725,12 @@
       <c r="L151" s="1" t="s">
         <v>347</v>
       </c>
+      <c r="M151">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L151" xr:uid="{9588C932-7A64-45E0-8ACE-39B289AC232F}"/>
+  <autoFilter ref="A1:M151" xr:uid="{99ECBC61-0904-4DA3-88B6-4703D4688D36}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A110:J117">
     <sortCondition ref="A110:A117"/>
   </sortState>

--- a/Aplicacion_Sistema_Experto/Sitio_WEB/static/Catalogos/Variedades.xlsx
+++ b/Aplicacion_Sistema_Experto/Sitio_WEB/static/Catalogos/Variedades.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\GitHub\Sistema_Experto\Aplicacion_Sistema_Experto\Sitio_WEB\static\Catalogos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E6DB4F-0968-4048-BE00-71BAB6D57038}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2D3931-FD74-44B8-AA6B-1C664247BBF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F2F24514-A324-4A91-BC41-6F647A0328B5}"/>
   </bookViews>
@@ -26,7 +26,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="371">
   <si>
     <t>POJ2878</t>
   </si>
@@ -1129,9 +1132,6 @@
   </si>
   <si>
     <t>208.80</t>
-  </si>
-  <si>
-    <t>270-59</t>
   </si>
   <si>
     <t>163.42</t>
@@ -1522,7 +1522,7 @@
   <dimension ref="A1:M151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1576,7 +1576,7 @@
         <v>337</v>
       </c>
       <c r="M1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -6984,8 +6984,8 @@
       <c r="K133" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="L133" s="1" t="s">
-        <v>365</v>
+      <c r="L133" s="1">
+        <v>270</v>
       </c>
       <c r="M133">
         <v>18</v>
@@ -7108,7 +7108,7 @@
         <v>92</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="M136">
         <v>18</v>
@@ -7149,7 +7149,7 @@
         <v>148</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M137">
         <v>18</v>
@@ -7190,7 +7190,7 @@
         <v>92</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M138">
         <v>18</v>
@@ -7231,7 +7231,7 @@
         <v>253</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M139">
         <v>16</v>
@@ -7272,7 +7272,7 @@
         <v>92</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M140">
         <v>15</v>

--- a/Aplicacion_Sistema_Experto/Sitio_WEB/static/Catalogos/Variedades.xlsx
+++ b/Aplicacion_Sistema_Experto/Sitio_WEB/static/Catalogos/Variedades.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\GitHub\Sistema_Experto\Aplicacion_Sistema_Experto\Sitio_WEB\static\Catalogos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2D3931-FD74-44B8-AA6B-1C664247BBF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618A047E-D915-4371-BA6E-EA2ABB527214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F2F24514-A324-4A91-BC41-6F647A0328B5}"/>
   </bookViews>
@@ -1522,7 +1522,7 @@
   <dimension ref="A1:M151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="M152" sqref="M152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6988,7 +6988,7 @@
         <v>270</v>
       </c>
       <c r="M133">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
@@ -7740,6 +7740,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101008779A2D33CA8334492C549E4686517BF" ma:contentTypeVersion="5" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="2a4260219ee5de385190f1abcccb100d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ee14d8cb-d637-4a78-b781-9c79618f591c" xmlns:ns4="980e4f00-5dd6-4ca1-90c5-af35b41372d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6dd5b29c8537c5ffeac9c4273f4fd428" ns3:_="" ns4:_="">
     <xsd:import namespace="ee14d8cb-d637-4a78-b781-9c79618f591c"/>
@@ -7910,15 +7919,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -7926,6 +7926,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D35F07D0-F923-484E-A1F2-59518B14DBD4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2C1E75B-2AC2-40AB-8D57-20A7D5419072}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7944,14 +7952,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D35F07D0-F923-484E-A1F2-59518B14DBD4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD5E41CA-7CC8-4374-B90B-F75EA63B41F5}">
   <ds:schemaRefs>
